--- a/medicine/Mort/Tombe_de_la_Cabane/Tombe_de_la_Cabane.xlsx
+++ b/medicine/Mort/Tombe_de_la_Cabane/Tombe_de_la_Cabane.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La tombe de la Cabane (en italien, Tomba della Capanna) est une tombe étrusque à tumulus de la nécropole de Banditaccia à Cerveteri.
 </t>
@@ -511,9 +523,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La Tombe de la Cabane (Tumulus II) date  du VIIe siècle av. J.-C.[1] et est une des premières tombes dont la maison des morts imite celle des vivants[1],
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La Tombe de la Cabane (Tumulus II) date  du VIIe siècle av. J.-C. et est une des premières tombes dont la maison des morts imite celle des vivants,
 avec ses éléments structurels et  architecturaux : toit à pignon  de bois et de chaume, la  traverse principale, les banquettes de pierre le long des murs.
 </t>
         </is>
@@ -543,7 +557,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Un long dromos à ciel ouvert et à deux niches latérales mène à deux chambres taillées dans le tuf et dans l'axe l'une de l'autre.
 La première chambre a le toit à double pente à poutre faîtière simulée, à banquettes sur le côté. 
